--- a/reports/resnet18_23_no_MMTM/prediction/9/prediction_train_9.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/9/prediction_train_9.xlsx
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
